--- a/biology/Zoologie/Amauris/Amauris.xlsx
+++ b/biology/Zoologie/Amauris/Amauris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Amauris regroupe des insectes lépidoptères de la famille des Nymphalidae, de la sous-famille des Danainae et de la tribu des Danaini résidant en Afrique.
 </t>
@@ -511,20 +523,91 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit par l'entomologiste allemand Jakob Hübner, en 1816[1]. L'espèce type est Amauris niavius (Linnaeus).
-Synonymie
-Amaura (Geyer, 1837)[2]
-Conoploea (Guenée, 1865)[3]
-Cadytis (Moore, 1883)[4]
-Berethis (Moore, 1883)[5]
-Nebroda (Moore, 1883)[5]
-Amaurina (Aurivillius, 1910)[6]
-Panamauris (Bryk, 1937)[7]
-Egialea (Hemming, 1964)[8]
-Taxinomie
-Liste des espèces
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit par l'entomologiste allemand Jakob Hübner, en 1816. L'espèce type est Amauris niavius (Linnaeus).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amauris</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Amaura (Geyer, 1837)
+Conoploea (Guenée, 1865)
+Cadytis (Moore, 1883)
+Berethis (Moore, 1883)
+Nebroda (Moore, 1883)
+Amaurina (Aurivillius, 1910)
+Panamauris (Bryk, 1937)
+Egialea (Hemming, 1964)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amauris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Amauris comorana (Oberthür, 1897)
 Amauris nossima (Ward, 1870)
 Amauris phoedon (Fabricius, 1798)
